--- a/populationData.xlsx
+++ b/populationData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganfi\OneDrive\Documents\Econ Final Urban Regional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{488ED0F4-D5D3-4B91-A617-00EDE14FD7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D144850-DC45-4545-992E-CB0B1EF5A6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="populationData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>REGION</t>
   </si>
@@ -245,12 +258,21 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>PreChangeComb</t>
+  </si>
+  <si>
+    <t>Years Legal (12 if not legal)</t>
+  </si>
+  <si>
+    <t>Change by Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,13 +1106,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="S43" sqref="S43"/>
+      <selection pane="bottomLeft" activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,9 +1120,11 @@
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,8 +1197,17 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1236,11 +1269,23 @@
         <v>288782</v>
       </c>
       <c r="X2">
-        <f>IF(U2&lt;&gt;"", U2, W2)</f>
+        <f t="shared" ref="X2:X33" si="0">IF(U2&lt;&gt;"", U2, W2)</f>
         <v>288782</v>
       </c>
+      <c r="Y2">
+        <f>IF(V2="",W2,V2)</f>
+        <v>288782</v>
+      </c>
+      <c r="Z2">
+        <f>IF(T2&lt;&gt;"",(2022-T2),12)</f>
+        <v>12</v>
+      </c>
+      <c r="AA2">
+        <f>W2/Z2</f>
+        <v>24065.166666666668</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1312,11 +1357,23 @@
         <v>19601</v>
       </c>
       <c r="X3">
-        <f>IF(U3&lt;&gt;"", U3, W3)</f>
+        <f t="shared" si="0"/>
         <v>-3492</v>
       </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y52" si="1">IF(V3="",W3,V3)</f>
+        <v>23093</v>
+      </c>
+      <c r="Z3">
+        <f>IF(T3&lt;&gt;"",(2022-T3),12)</f>
+        <v>8</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA52" si="2">W3/Z3</f>
+        <v>2450.125</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1388,11 +1445,23 @@
         <v>951855</v>
       </c>
       <c r="X4">
-        <f>IF(U4&lt;&gt;"", U4, W4)</f>
+        <f t="shared" si="0"/>
         <v>-62204</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>1014059</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z52" si="3">IF(T4&lt;&gt;"",(2022-T4),12)</f>
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="2"/>
+        <v>475927.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1454,11 +1523,23 @@
         <v>123639</v>
       </c>
       <c r="X5">
-        <f>IF(U5&lt;&gt;"", U5, W5)</f>
+        <f t="shared" si="0"/>
         <v>123639</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>123639</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>10303.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1530,11 +1611,23 @@
         <v>1709792</v>
       </c>
       <c r="X6">
-        <f>IF(U6&lt;&gt;"", U6, W6)</f>
+        <f t="shared" si="0"/>
         <v>-408121</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>1829636</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="2"/>
+        <v>427448</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1606,11 +1699,23 @@
         <v>792387</v>
       </c>
       <c r="X7">
-        <f>IF(U7&lt;&gt;"", U7, W7)</f>
+        <f t="shared" si="0"/>
         <v>487289</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>146121</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>99048.375</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1672,11 +1777,23 @@
         <v>47032</v>
       </c>
       <c r="X8">
-        <f>IF(U8&lt;&gt;"", U8, W8)</f>
+        <f t="shared" si="0"/>
         <v>47032</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>47032</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>3919.3333333333335</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1738,11 +1855,23 @@
         <v>118749</v>
       </c>
       <c r="X9">
-        <f>IF(U9&lt;&gt;"", U9, W9)</f>
+        <f t="shared" si="0"/>
         <v>118749</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>118749</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>9895.75</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1814,11 +1943,23 @@
         <v>66521</v>
       </c>
       <c r="X10">
-        <f>IF(U10&lt;&gt;"", U10, W10)</f>
+        <f t="shared" si="0"/>
         <v>-5211</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>82294</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>9503</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1880,11 +2021,23 @@
         <v>3398680</v>
       </c>
       <c r="X11">
-        <f>IF(U11&lt;&gt;"", U11, W11)</f>
+        <f t="shared" si="0"/>
         <v>3398680</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>3398680</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>283223.33333333331</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1946,11 +2099,23 @@
         <v>1200667</v>
       </c>
       <c r="X12">
-        <f>IF(U12&lt;&gt;"", U12, W12)</f>
+        <f t="shared" si="0"/>
         <v>1200667</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>1200667</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>100055.58333333333</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2012,11 +2177,23 @@
         <v>76192</v>
       </c>
       <c r="X13">
-        <f>IF(U13&lt;&gt;"", U13, W13)</f>
+        <f t="shared" si="0"/>
         <v>76192</v>
       </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>76192</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>6349.333333333333</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2078,11 +2255,23 @@
         <v>368214</v>
       </c>
       <c r="X14">
-        <f>IF(U14&lt;&gt;"", U14, W14)</f>
+        <f t="shared" si="0"/>
         <v>368214</v>
       </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>368214</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>30684.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2154,11 +2343,23 @@
         <v>-258513</v>
       </c>
       <c r="X15">
-        <f>IF(U15&lt;&gt;"", U15, W15)</f>
+        <f t="shared" si="0"/>
         <v>-5498</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>-253015</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>-129256.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2220,11 +2421,23 @@
         <v>342482</v>
       </c>
       <c r="X16">
-        <f>IF(U16&lt;&gt;"", U16, W16)</f>
+        <f t="shared" si="0"/>
         <v>342482</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>342482</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>28540.166666666668</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2286,11 +2499,23 @@
         <v>149698</v>
       </c>
       <c r="X17">
-        <f>IF(U17&lt;&gt;"", U17, W17)</f>
+        <f t="shared" si="0"/>
         <v>149698</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>149698</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>12474.833333333334</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2352,11 +2577,23 @@
         <v>78884</v>
       </c>
       <c r="X18">
-        <f>IF(U18&lt;&gt;"", U18, W18)</f>
+        <f t="shared" si="0"/>
         <v>78884</v>
       </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>78884</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="2"/>
+        <v>6573.666666666667</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2418,11 +2655,23 @@
         <v>163846</v>
       </c>
       <c r="X19">
-        <f>IF(U19&lt;&gt;"", U19, W19)</f>
+        <f t="shared" si="0"/>
         <v>163846</v>
       </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>163846</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>13653.833333333334</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2484,11 +2733,23 @@
         <v>45606</v>
       </c>
       <c r="X20">
-        <f>IF(U20&lt;&gt;"", U20, W20)</f>
+        <f t="shared" si="0"/>
         <v>45606</v>
       </c>
+      <c r="Y20">
+        <f t="shared" si="1"/>
+        <v>45606</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>3800.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2557,11 +2818,23 @@
         <v>57689</v>
       </c>
       <c r="X21">
-        <f>IF(U21&lt;&gt;"", U21, W21)</f>
+        <f t="shared" si="0"/>
         <v>35199</v>
       </c>
+      <c r="Y21">
+        <f t="shared" si="1"/>
+        <v>57689</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>28844.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2623,11 +2896,23 @@
         <v>375876</v>
       </c>
       <c r="X22">
-        <f>IF(U22&lt;&gt;"", U22, W22)</f>
+        <f t="shared" si="0"/>
         <v>375876</v>
       </c>
+      <c r="Y22">
+        <f t="shared" si="1"/>
+        <v>375876</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>31323</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2699,11 +2984,23 @@
         <v>415534</v>
       </c>
       <c r="X23">
-        <f>IF(U23&lt;&gt;"", U23, W23)</f>
+        <f t="shared" si="0"/>
         <v>96254</v>
       </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>260840</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>103883.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2775,11 +3072,23 @@
         <v>156516</v>
       </c>
       <c r="X24">
-        <f>IF(U24&lt;&gt;"", U24, W24)</f>
+        <f t="shared" si="0"/>
         <v>46827</v>
       </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>109689</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>39129</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2841,11 +3150,23 @@
         <v>406250</v>
       </c>
       <c r="X25">
-        <f>IF(U25&lt;&gt;"", U25, W25)</f>
+        <f t="shared" si="0"/>
         <v>406250</v>
       </c>
+      <c r="Y25">
+        <f t="shared" si="1"/>
+        <v>406250</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>33854.166666666664</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2907,11 +3228,23 @@
         <v>-30558</v>
       </c>
       <c r="X26">
-        <f>IF(U26&lt;&gt;"", U26, W26)</f>
+        <f t="shared" si="0"/>
         <v>-30558</v>
       </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>-30558</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="2"/>
+        <v>-2546.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2973,11 +3306,23 @@
         <v>181868</v>
       </c>
       <c r="X27">
-        <f>IF(U27&lt;&gt;"", U27, W27)</f>
+        <f t="shared" si="0"/>
         <v>181868</v>
       </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>181868</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>15155.666666666666</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3046,11 +3391,23 @@
         <v>132137</v>
       </c>
       <c r="X28">
-        <f>IF(U28&lt;&gt;"", U28, W28)</f>
+        <f t="shared" si="0"/>
         <v>16640</v>
       </c>
+      <c r="Y28">
+        <f t="shared" si="1"/>
+        <v>132137</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="2"/>
+        <v>132137</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3112,11 +3469,23 @@
         <v>138332</v>
       </c>
       <c r="X29">
-        <f>IF(U29&lt;&gt;"", U29, W29)</f>
+        <f t="shared" si="0"/>
         <v>138332</v>
       </c>
+      <c r="Y29">
+        <f t="shared" si="1"/>
+        <v>138332</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="2"/>
+        <v>11527.666666666666</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3188,11 +3557,23 @@
         <v>475289</v>
       </c>
       <c r="X30">
-        <f>IF(U30&lt;&gt;"", U30, W30)</f>
+        <f t="shared" si="0"/>
         <v>205675</v>
       </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>217072</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="2"/>
+        <v>95057.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3254,11 +3635,23 @@
         <v>78424</v>
       </c>
       <c r="X31">
-        <f>IF(U31&lt;&gt;"", U31, W31)</f>
+        <f t="shared" si="0"/>
         <v>78424</v>
       </c>
+      <c r="Y31">
+        <f t="shared" si="1"/>
+        <v>78424</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="2"/>
+        <v>6535.333333333333</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3320,11 +3713,23 @@
         <v>462248</v>
       </c>
       <c r="X32">
-        <f>IF(U32&lt;&gt;"", U32, W32)</f>
+        <f t="shared" si="0"/>
         <v>462248</v>
       </c>
+      <c r="Y32">
+        <f t="shared" si="1"/>
+        <v>462248</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="2"/>
+        <v>38520.666666666664</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3390,17 +3795,30 @@
         <v>-3333</v>
       </c>
       <c r="V33">
+        <f>Q33-F33</f>
         <v>52063</v>
       </c>
       <c r="W33">
         <v>48730</v>
       </c>
       <c r="X33">
-        <f>IF(U33&lt;&gt;"", U33, W33)</f>
+        <f t="shared" si="0"/>
         <v>-3333</v>
       </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>52063</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="2"/>
+        <v>48730</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3466,17 +3884,30 @@
         <v>-180341</v>
       </c>
       <c r="V34">
+        <f>Q34-F34</f>
         <v>457536</v>
       </c>
       <c r="W34">
         <v>277195</v>
       </c>
       <c r="X34">
-        <f>IF(U34&lt;&gt;"", U34, W34)</f>
+        <f t="shared" ref="X34:X52" si="4">IF(U34&lt;&gt;"", U34, W34)</f>
         <v>-180341</v>
       </c>
+      <c r="Y34">
+        <f t="shared" si="1"/>
+        <v>457536</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="2"/>
+        <v>277195</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3538,11 +3969,23 @@
         <v>1124387</v>
       </c>
       <c r="X35">
-        <f>IF(U35&lt;&gt;"", U35, W35)</f>
+        <f t="shared" si="4"/>
         <v>1124387</v>
       </c>
+      <c r="Y35">
+        <f t="shared" si="1"/>
+        <v>1124387</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="2"/>
+        <v>93698.916666666672</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3604,11 +4047,23 @@
         <v>104509</v>
       </c>
       <c r="X36">
-        <f>IF(U36&lt;&gt;"", U36, W36)</f>
+        <f t="shared" si="4"/>
         <v>104509</v>
       </c>
+      <c r="Y36">
+        <f t="shared" si="1"/>
+        <v>104509</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="2"/>
+        <v>8709.0833333333339</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3670,11 +4125,23 @@
         <v>216609</v>
       </c>
       <c r="X37">
-        <f>IF(U37&lt;&gt;"", U37, W37)</f>
+        <f t="shared" si="4"/>
         <v>216609</v>
       </c>
+      <c r="Y37">
+        <f t="shared" si="1"/>
+        <v>216609</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="2"/>
+        <v>18050.75</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3736,11 +4203,23 @@
         <v>259786</v>
       </c>
       <c r="X38">
-        <f>IF(U38&lt;&gt;"", U38, W38)</f>
+        <f t="shared" si="4"/>
         <v>259786</v>
       </c>
+      <c r="Y38">
+        <f t="shared" si="1"/>
+        <v>259786</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="2"/>
+        <v>21648.833333333332</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3812,11 +4291,23 @@
         <v>402523</v>
       </c>
       <c r="X39">
-        <f>IF(U39&lt;&gt;"", U39, W39)</f>
+        <f t="shared" si="4"/>
         <v>274690</v>
       </c>
+      <c r="Y39">
+        <f t="shared" si="1"/>
+        <v>127833</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="2"/>
+        <v>50315.375</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3878,11 +4369,23 @@
         <v>260602</v>
       </c>
       <c r="X40">
-        <f>IF(U40&lt;&gt;"", U40, W40)</f>
+        <f t="shared" si="4"/>
         <v>260602</v>
       </c>
+      <c r="Y40">
+        <f t="shared" si="1"/>
+        <v>260602</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="2"/>
+        <v>21716.833333333332</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3944,11 +4447,23 @@
         <v>39740</v>
       </c>
       <c r="X41">
-        <f>IF(U41&lt;&gt;"", U41, W41)</f>
+        <f t="shared" si="4"/>
         <v>39740</v>
       </c>
+      <c r="Y41">
+        <f t="shared" si="1"/>
+        <v>39740</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="2"/>
+        <v>3311.6666666666665</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4010,11 +4525,23 @@
         <v>646788</v>
       </c>
       <c r="X42">
-        <f>IF(U42&lt;&gt;"", U42, W42)</f>
+        <f t="shared" si="4"/>
         <v>646788</v>
       </c>
+      <c r="Y42">
+        <f t="shared" si="1"/>
+        <v>646788</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="2"/>
+        <v>53899</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4083,11 +4610,23 @@
         <v>93631</v>
       </c>
       <c r="X43">
-        <f>IF(U43&lt;&gt;"", U43, W43)</f>
+        <f t="shared" si="4"/>
         <v>13660</v>
       </c>
+      <c r="Y43">
+        <f t="shared" si="1"/>
+        <v>93631</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="2"/>
+        <v>93631</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4149,11 +4688,23 @@
         <v>695821</v>
       </c>
       <c r="X44">
-        <f>IF(U44&lt;&gt;"", U44, W44)</f>
+        <f t="shared" si="4"/>
         <v>695821</v>
       </c>
+      <c r="Y44">
+        <f t="shared" si="1"/>
+        <v>695821</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="2"/>
+        <v>57985.083333333336</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -4215,11 +4766,23 @@
         <v>4787675</v>
       </c>
       <c r="X45">
-        <f>IF(U45&lt;&gt;"", U45, W45)</f>
+        <f t="shared" si="4"/>
         <v>4787675</v>
       </c>
+      <c r="Y45">
+        <f t="shared" si="1"/>
+        <v>4787675</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="2"/>
+        <v>398972.91666666669</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -4281,11 +4844,23 @@
         <v>605387</v>
       </c>
       <c r="X46">
-        <f>IF(U46&lt;&gt;"", U46, W46)</f>
+        <f t="shared" si="4"/>
         <v>605387</v>
       </c>
+      <c r="Y46">
+        <f t="shared" si="1"/>
+        <v>605387</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>50448.916666666664</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4356,11 +4931,23 @@
         <v>21178</v>
       </c>
       <c r="X47">
-        <f>IF(U47&lt;&gt;"", U47, W47)</f>
+        <f t="shared" si="4"/>
         <v>22262</v>
       </c>
+      <c r="Y47">
+        <f t="shared" si="1"/>
+        <v>-1084</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="2"/>
+        <v>5294.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4429,11 +5016,23 @@
         <v>659615</v>
       </c>
       <c r="X48">
-        <f>IF(U48&lt;&gt;"", U48, W48)</f>
+        <f t="shared" si="4"/>
         <v>26254</v>
       </c>
+      <c r="Y48">
+        <f t="shared" si="1"/>
+        <v>659615</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="2"/>
+        <v>659615</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4504,11 +5103,23 @@
         <v>1042777</v>
       </c>
       <c r="X49">
-        <f>IF(U49&lt;&gt;"", U49, W49)</f>
+        <f t="shared" si="4"/>
         <v>887187</v>
       </c>
+      <c r="Y49">
+        <f t="shared" si="1"/>
+        <v>155590</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="2"/>
+        <v>104277.7</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4570,11 +5181,23 @@
         <v>-79109</v>
       </c>
       <c r="X50">
-        <f>IF(U50&lt;&gt;"", U50, W50)</f>
+        <f t="shared" si="4"/>
         <v>-79109</v>
       </c>
+      <c r="Y50">
+        <f t="shared" si="1"/>
+        <v>-79109</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="2"/>
+        <v>-6592.416666666667</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -4636,11 +5259,23 @@
         <v>202001</v>
       </c>
       <c r="X51">
-        <f>IF(U51&lt;&gt;"", U51, W51)</f>
+        <f t="shared" si="4"/>
         <v>202001</v>
       </c>
+      <c r="Y51">
+        <f t="shared" si="1"/>
+        <v>202001</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="2"/>
+        <v>16833.416666666668</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4702,8 +5337,20 @@
         <v>16850</v>
       </c>
       <c r="X52">
-        <f>IF(U52&lt;&gt;"", U52, W52)</f>
+        <f t="shared" si="4"/>
         <v>16850</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="1"/>
+        <v>16850</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="2"/>
+        <v>1404.1666666666667</v>
       </c>
     </row>
   </sheetData>
